--- a/sample-files/Aimdtalk.xlsx
+++ b/sample-files/Aimdtalk.xlsx
@@ -1,132 +1,146 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fatima_parsed" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
-  <si>
-    <t>Professional Name</t>
-  </si>
-  <si>
-    <t>Extracted Text</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>File Name</t>
-  </si>
-  <si>
-    <t>Salah</t>
-  </si>
-  <si>
-    <t>AbaSalatSindh,Pakistan|abasalat2023@gmail.com|+923138023211|linkedin.com/in/aba-salat|github.com/AbasalatTargetRoleandSummary
-Target:FlutterDeveloper|MobileAppsFlutterdeveloperspecializinginscalable,high-performanceappsusingMVVM,Provider/Riverpod,andFirebase(Auth/Firestore).Focusoncleanarchitecture,cachingandrenderoptimization.Outcome-driven:fasterloads,fewererrors,strongerconversion.SelectedAchievements
-•CutapploadtimebysignificantlyenhancingAPIandimagecachingplusoptimizedrebuilds,resultinginfasterappperformanceandasmootheruserexperience•LoweredfailedAPIcallsbyintroducingpagination,retries,andtypedmodelswithclearerrorstates,leadingtomorereliabledatafetchingandfewerdisruptionsinappfunctionality•Enhancedadd-to-cartconversionsthroughAI-assistedrecommendationsandthoughtfulUXdesignimprovements,leadingtohigheruserengagementandtransactionratesExperience
-FlutterDeveloper,SpinelSol—Pakistan2025–Present•DeliveredFirebaseAuthandFirestorefeatureswithreal-timelisteners;optimizedFirestorereadsbyimplementingqueryscopingandbatchedwrites,resultinginmoreefficientdatahandling•RefactoredtoMVVMwithProvider/Riverpodtocontrolrebuilds;improvedscrollsmoothnessonproductlists(fewerdroppedframes)duringlistviews•ImprovedRESTAPIintegrationwithpaginationandretries,reducingappcrashesandaddingfriendlyempty/errorstatesforabetteruserexperience•StandardizedGitflow(featurebranches,PRreviews,basicCI);shorteneddeliverycycletimeandimprovedoverallteamproductivityProjects
-E-Shop—FlutterE-commerceApp(Flutter,MVVM,Provider,FirebaseAuth/Firestore,REST)GitHub1.Buildscope:Multi-screenapp(Home,Categories,Wishlist,Cart,Profile)—5screens—withsecureauthandper-usercart/wishlistisolationinFirestore2.Differentiators:Client-sidecachingwithshimmerloading,sessionmanagement,andAI-basedproductrecommendations3.Impact:APIcallscut38%,cold-starttimeshortened35%,view-to-detailclick-throughimproved10%COVID-19TrackerApp(Flutter,RESTAPI)20251.Buildscope:Globalandper-countrystatswithsearch,filters,detailviews,andpull-to-refreshusingtype-safemodels2.Differentiators:State-preservingtabs,lazydataloading,andconsistentempty/errorscreens3.Impact:pageloadtimeimproved25%,timeouterrorsdropped30%,memoryusagelowered18%
- StepCounterSystem(Flutter,Next.js,Firestore,SQLite,Chart.js)20251.Buildscope:Mobile+websystemtocapturesteps,synctocloud,anddisplaydashboards2.Differentiators:Offline-firstdesignwithSQLite,real-timesync,anduser-scopedsecurityrules3.Impact:syncconflictsdropped45%,offlineusagegrew40%,dashboardloadtimeimproved27%Skills
-Languages:Dart,JavaScriptMobile:Flutter,MVVM(Model–View–ViewModel),Provider,Riverpod,GetX,SharedPreferencesBackend/Cloud:Firebase(Auth,Firestore,Storage,CloudFunctions),REST/JSON,WebhooksTooling:Git/GitHub,AndroidStudio,VSCode,Postman,basicCI/CDQuality/Performance:Unit/Widgettests,Analytics/Crashreporting,Caching,PerformanceprofilingWeb(supporting):Next.js/React(dashboards)Education
-BScinComputerScience,SukkurIBAUniversity—Sukkur,PakistanAug2025Certifications
-React&amp;Redux—KGCODING(2023)|IntroductiontoMongoDB—MongoDB,Inc.(May2024)|NationalFreelanceTrainingProgram(MoITT)(2023)</t>
-  </si>
-  <si>
-    <t>Aba_Salat_Flutter_Developer-7.pdf</t>
-  </si>
-  <si>
-    <t>AbaSalatSindh,Pakistan|abasalat2023@gmail.com|+923138023211|linkedin.com/in/aba-salat|github.com/AbasalatTargetRoleandSummary
-Target:FlutterDeveloper|MobileApps|n8nWorkflowAutomationFlutterdeveloperspecializinginscalable,high-performanceappsusingMVVM,Provider/Riverpod,andFirebase(Auth/Firestore).Focusoncleanarchitecture,cachingandrenderoptimization,andautomationvian8n+GPT-4/Geminiforleadgenerationandemailoutreach.Outcome-driven:fasterloads,fewererrors,strongerconversionSelectedAchievements
-•CutapploadtimebysignificantlyenhancingAPIandimagecachingplusoptimizedrebuilds,resultinginfasterappperformanceandasmootheruserexperience•LoweredfailedAPIcallsbyintroducingpagination,retries,andtypedmodelswithclearerrorstates,leadingtomorereliabledatafetchingandfewerdisruptionsinappfunctionality•Enhancedadd-to-cartconversionsthroughAI-assistedrecommendationsandthoughtfulUXdesignimprovements,leadingtohigheruserengagementandtransactionratesExperience
-FlutterDeveloper,SpinelSol—Pakistan2025–Present•DeliveredFirebaseAuthandFirestorefeatureswithreal-timelisteners;optimizedFirestorereadsbyimplementingqueryscopingandbatchedwrites,resultinginmoreefficientdatahandling•RefactoredtoMVVMwithProvider/Riverpodtocontrolrebuilds;improvedscrollsmoothnessonproductlists(fewerdroppedframes)duringlistviews•ImprovedRESTAPIintegrationwithpaginationandretries,reducingappcrashesandaddingfriendlyempty/errorstatesforabetteruserexperience•StandardizedGitflow(featurebranches,PRreviews,basicCI);shorteneddeliverycycletimeandimprovedoverallteamproductivityAutomationEngineer(n8n)—Freelance/Project,Remote2024–2025•Designedandorchestratedalead-generationworkflowwithApify,Hunter.io,Airtable,andGmail,streamliningmanualprocessesandsignificantlyimprovingtheefficiencyofcontactgeneration•Implementedwebhooks,retries,andidempotentstepstostabilizeautomationruns,leadingtomoreconsistentandreliablesystemperformanceProjects
-E-Shop—FlutterE-commerceApp(Flutter,MVVM,Provider,FirebaseAuth/Firestore,REST)GitHub1.Buildscope:Multi-screenapp(Home,Categories,Wishlist,Cart,Profile)—5screens—withsecureauthandper-usercart/wishlistisolationinFirestore2.Differentiators:Client-sidecachingwithshimmerloading,sessionmanagement,andAI-basedproductrecommendations3.Impact:APIcallscut38%,cold-starttimeshortened35%,view-to-detailclick-throughimproved10%
- COVID-19TrackerApp(Flutter,RESTAPI)20251.Buildscope:Globalandper-countrystatswithsearch,filters,detailviews,andpull-to-refreshusingtype-safemodels2.Differentiators:State-preservingtabs,lazydataloading,andconsistentempty/errorscreens3.Impact:pageloadtimeimproved25%,timeouterrorsdropped30%,memoryusagelowered18%StepCounterSystem(Flutter,Next.js,Firestore,SQLite,Chart.js)20251.Buildscope:Mobile+websystemtocapturesteps,synctocloud,anddisplaydashboards2.Differentiators:Offline-firstdesignwithSQLite,real-timesync,anduser-scopedsecurityrules3.Impact:syncconflictsdropped45%,offlineusagegrew40%,dashboardloadtimeimproved27%LeadGenAutomationSystem(MarketingAgencies)(n8nWorkflow,Gemini,Hunter.io,Airtable,GmailAPI)20251.Buildscope:Chatbot-triggeredpipelineforleadgeneration,fromfieldextractiontomulti-stagefilters/scoringusingGemini;includeswebhooks,scheduling,anderrorhandling2.Differentiators:LeadenrichmentviaHunter.io,centralizedinAirtable,andGmailAPIforcoldemails;autocampaignsummariesandinsightsviaGemini3.Impact:prospectingtimedecreased70%,validcontactsincreased30%,bounceratedropped40%Skills
-Languages:Dart,JavaScriptMobile:Flutter,MVVM(Model–View–ViewModel),Provider,Riverpod,GetX,SharedPreferencesBackend/Cloud:Firebase(Auth,Firestore,Storage,CloudFunctions),REST/JSON,WebhooksAutomation:n8n,GPT-4/GeminiAPIs,Airtable,Hunter.io,ApifyGoogleMapScraperTooling:Git/GitHub,AndroidStudio,VSCode,Postman,basicCI/CDQuality/Performance:Unit/Widgettests,Analytics/Crashreporting,Caching,PerformanceprofilingWeb(supporting):Next.js/React(dashboards)Education
-BScinComputerScience,SukkurIBAUniversity—Sukkur,PakistanAug2025Certifications
-React&amp;Redux—KGCODING(2023)|IntroductiontoMongoDB—MongoDB,Inc.(May2024)|NationalFreelanceTrainingProgram(MoITT)(2023)</t>
-  </si>
-  <si>
-    <t>Aba_Salat_Resume (2)-1.pdf</t>
-  </si>
-  <si>
-    <t>AbaSalatWebDeveloper&amp;n8nWorkflowAutomationSpecialistSukkur,Pakistan+923138023211
-abasalat2023@gmail.com
-linkedin.com/in/aba-salat/
-github.com/Abasalat/
-ProfessionalSummary
-Results-drivenWebDeveloperandAutomationEngineerwithhands-onexperienceinbuildingresponsivewebapplicationsandintelligentautomationsystemsusingn8n,Next.js,andReact.SkilledindesigninganddeployingAI-poweredworkflowsintegratingtoolslikeChatGPT,GPT-4,Gemini,andHunter.ioforleadgeneration,emailautomation,anddataenrichment.Adeptatdevelopingscalablefrontendsolutions,integratingRESTAPIs,andstreamliningbusinessprocessesthroughcreativeautomation.ProfessionalExperience
-Freelancer(Remote)2024–PresentWebDeveloper&amp;n8nAutomationSpecialist–Developedend-to-endautomationpipelinesusingn8nforleadgeneration,AI-basedcontentcreation,andemailoutreach.–IntegratedmultipleAIAPIs—GPT-4,Claude,Gemini,andWhisper—toautomateworkflowsforclientsinmarketingandtechindustries.–CreatedNext.jsdashboardsconnectedtoautomationworkflowsforauthenticatedtaskmanagement.–ConfigureddatastorageandanalyticspipelineswithAirtable,GoogleSheets,andFirebaseFirestore.KeyProjects
-AI-DrivenAutomation&amp;ValidationPlatform2024Next.js•GPT-4/Claude/DeepSeek•Whisper•GoogleMapScraper•Hunter.io•GmailAPI•Excel–Developedn8n-poweredpipelinesforcontentgeneration,webscraping,andcross-modelvalidationwithAIAPIs(ChatGPT,GPT-4,Claude).–IntegratedWhisperSTTfortranscription-drivenworkflows.–LeadenrichmentviaGoogleMapScraper&amp;Hunter.io;personalizedcampaignsviaGmailAPI;authenticatedNext.jsfrontend.LeadGenAutomationSystem(MarketingAgencies)2025n8nWorkflow•Gemini•Hunter.io•Airtable•Gmail–Createdchatbot-triggeredpipelineforleadgeneration,startingfromfieldextractiontomulti-stagefilters/scoringwithGemini.–PerformedleadenrichmentwithHunter.io,storedinAirtable,andusedGmailAPIforcoldemails.–AutomatedcampaignsummariesviaGeminiformarketinginsights.LinkedInContentCreationWorkflow2025n8n•GoogleSheets•TavilyAPI•OpenRouterChatModel–AutomatedLinkedInpostcreation:fromtopicextractionviaGoogleSheets,TavilyAPIarticlesearch,LLMpostgeneration,andstatuswrite-back.RAGPipeline&amp;Chatbotn8n•GoogleDriveTrigger•SupabaseVectorStore•OpenAIEmbeddings•PostgresChatMemory–Createdadocumentupload→chunk/embed→vectorsearch→context-awarechatbotwithmemoryforthesis/reportinteraction.DCodeDynamicsFrontend(React,Bootstrap,Redux,Git)–Builtaresponsiveagencywebapp;collaboratedwithUI/UXtorefinecomponentsanduserflows.PulsePodStoreFrontend(React,JavaScript,CSS)–Createdananimatedlandingpageandlightweightstore;ensuredfullyresponsivelayoutacrossdevices.ExploringHumanoidRobotasClassroomTeacher:AnExperimentalStudy2025FinalYearProject—BScComputerScience,SukkurIBAUniversity
- –ProgrammedthePepperhumanoidRobotusingChoregraphetodeliverinteractiveprimary-levellessonsinScience&amp;SocialStudies.–Designedandranacontrolledclassroomexperimentcomparingrobot-ledvshuman-ledlessons(180studentobservations).–CollectedMCQassessments,feedback,andclassroomvideo;usedafacial-emotionrecognitionmodeltoderiveengagementmetrics.–Mergedassessmentscoreswithengagementdataandcleanedthedatasetforanalysis.–Performedinferentialstatistics(normalitychecks,t-tests,Mann–WhitneyU,Two-wayANOVA,χ2);foundastrongteachereffectonlearningoutcomes.TechnicalSkills
-Frontend:React.js,Next.js,JavaScript,TailwindCSS,HTML/CSS,BootstrapAutomation:n8n(HTTP,webhooks,filters,loops,parsers),AIintegration(Gemini,GPT-4,Claude),emailautomation(GmailAPI),scraping(Apify,Hunter.io)Backend&amp;Databases:Firebase(Firestore,Authentication),Airtable,SQLiteAPIs&amp;Integration:RESTfulAPIs,AIAPIs,datavalidationandenrichmentworkflowsTools:Git,GitHub,VSCode,Vercel,Chart.js,DeepSeekAITools:ChatGPT,WhisperAPI,LLaTeX,GoogleMapScraperAPIEducation
-SukkurIBAUniversityJune2025BachelorofScienceinComputerScienceSukkur,Pakistan–CGPA:3.0/4.0Certifications&amp;Learning
-ReactandRedux—KGCODING(2023)IntroductiontoMongoDB—MongoDBInc.(2024)NationalFreelanceTrainingProgram(NFTP)—MinistryofIT&amp;Telecom(2023)ContinuousLearning—Advancedn8nworkflows,AIAPIintegration,andwebautomationsystems</t>
-  </si>
-  <si>
-    <t>Abasalat-webn8n.pdf</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
       <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -324,90 +338,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.13"/>
-    <col customWidth="1" min="2" max="2" width="131.75"/>
+    <col width="29.13" customWidth="1" style="3" min="1" max="1"/>
+    <col width="131.75" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Professional Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Extracted Text</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>File Name</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Salah</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>AbaSalatSindh,Pakistan|abasalat2023@gmail.com|+923138023211|linkedin.com/in/aba-salat|github.com/AbasalatTargetRoleandSummary
+Target:FlutterDeveloper|MobileAppsFlutterdeveloperspecializinginscalable,high-performanceappsusingMVVM,Provider/Riverpod,andFirebase(Auth/Firestore).Focusoncleanarchitecture,cachingandrenderoptimization.Outcome-driven:fasterloads,fewererrors,strongerconversion.SelectedAchievements
+•CutapploadtimebysignificantlyenhancingAPIandimagecachingplusoptimizedrebuilds,resultinginfasterappperformanceandasmootheruserexperience•LoweredfailedAPIcallsbyintroducingpagination,retries,andtypedmodelswithclearerrorstates,leadingtomorereliabledatafetchingandfewerdisruptionsinappfunctionality•Enhancedadd-to-cartconversionsthroughAI-assistedrecommendationsandthoughtfulUXdesignimprovements,leadingtohigheruserengagementandtransactionratesExperience
+FlutterDeveloper,SpinelSol—Pakistan2025–Present•DeliveredFirebaseAuthandFirestorefeatureswithreal-timelisteners;optimizedFirestorereadsbyimplementingqueryscopingandbatchedwrites,resultinginmoreefficientdatahandling•RefactoredtoMVVMwithProvider/Riverpodtocontrolrebuilds;improvedscrollsmoothnessonproductlists(fewerdroppedframes)duringlistviews•ImprovedRESTAPIintegrationwithpaginationandretries,reducingappcrashesandaddingfriendlyempty/errorstatesforabetteruserexperience•StandardizedGitflow(featurebranches,PRreviews,basicCI);shorteneddeliverycycletimeandimprovedoverallteamproductivityProjects
+E-Shop—FlutterE-commerceApp(Flutter,MVVM,Provider,FirebaseAuth/Firestore,REST)GitHub1.Buildscope:Multi-screenapp(Home,Categories,Wishlist,Cart,Profile)—5screens—withsecureauthandper-usercart/wishlistisolationinFirestore2.Differentiators:Client-sidecachingwithshimmerloading,sessionmanagement,andAI-basedproductrecommendations3.Impact:APIcallscut38%,cold-starttimeshortened35%,view-to-detailclick-throughimproved10%COVID-19TrackerApp(Flutter,RESTAPI)20251.Buildscope:Globalandper-countrystatswithsearch,filters,detailviews,andpull-to-refreshusingtype-safemodels2.Differentiators:State-preservingtabs,lazydataloading,andconsistentempty/errorscreens3.Impact:pageloadtimeimproved25%,timeouterrorsdropped30%,memoryusagelowered18%
+ StepCounterSystem(Flutter,Next.js,Firestore,SQLite,Chart.js)20251.Buildscope:Mobile+websystemtocapturesteps,synctocloud,anddisplaydashboards2.Differentiators:Offline-firstdesignwithSQLite,real-timesync,anduser-scopedsecurityrules3.Impact:syncconflictsdropped45%,offlineusagegrew40%,dashboardloadtimeimproved27%Skills
+Languages:Dart,JavaScriptMobile:Flutter,MVVM(Model–View–ViewModel),Provider,Riverpod,GetX,SharedPreferencesBackend/Cloud:Firebase(Auth,Firestore,Storage,CloudFunctions),REST/JSON,WebhooksTooling:Git/GitHub,AndroidStudio,VSCode,Postman,basicCI/CDQuality/Performance:Unit/Widgettests,Analytics/Crashreporting,Caching,PerformanceprofilingWeb(supporting):Next.js/React(dashboards)Education
+BScinComputerScience,SukkurIBAUniversity—Sukkur,PakistanAug2025Certifications
+React&amp;Redux—KGCODING(2023)|IntroductiontoMongoDB—MongoDB,Inc.(May2024)|NationalFreelanceTrainingProgram(MoITT)(2023)</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>45995.09711805556</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Aba_Salat_Flutter_Developer-7.pdf</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Salah</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>AbaSalatSindh,Pakistan|abasalat2023@gmail.com|+923138023211|linkedin.com/in/aba-salat|github.com/AbasalatTargetRoleandSummary
+Target:FlutterDeveloper|MobileApps|n8nWorkflowAutomationFlutterdeveloperspecializinginscalable,high-performanceappsusingMVVM,Provider/Riverpod,andFirebase(Auth/Firestore).Focusoncleanarchitecture,cachingandrenderoptimization,andautomationvian8n+GPT-4/Geminiforleadgenerationandemailoutreach.Outcome-driven:fasterloads,fewererrors,strongerconversionSelectedAchievements
+•CutapploadtimebysignificantlyenhancingAPIandimagecachingplusoptimizedrebuilds,resultinginfasterappperformanceandasmootheruserexperience•LoweredfailedAPIcallsbyintroducingpagination,retries,andtypedmodelswithclearerrorstates,leadingtomorereliabledatafetchingandfewerdisruptionsinappfunctionality•Enhancedadd-to-cartconversionsthroughAI-assistedrecommendationsandthoughtfulUXdesignimprovements,leadingtohigheruserengagementandtransactionratesExperience
+FlutterDeveloper,SpinelSol—Pakistan2025–Present•DeliveredFirebaseAuthandFirestorefeatureswithreal-timelisteners;optimizedFirestorereadsbyimplementingqueryscopingandbatchedwrites,resultinginmoreefficientdatahandling•RefactoredtoMVVMwithProvider/Riverpodtocontrolrebuilds;improvedscrollsmoothnessonproductlists(fewerdroppedframes)duringlistviews•ImprovedRESTAPIintegrationwithpaginationandretries,reducingappcrashesandaddingfriendlyempty/errorstatesforabetteruserexperience•StandardizedGitflow(featurebranches,PRreviews,basicCI);shorteneddeliverycycletimeandimprovedoverallteamproductivityAutomationEngineer(n8n)—Freelance/Project,Remote2024–2025•Designedandorchestratedalead-generationworkflowwithApify,Hunter.io,Airtable,andGmail,streamliningmanualprocessesandsignificantlyimprovingtheefficiencyofcontactgeneration•Implementedwebhooks,retries,andidempotentstepstostabilizeautomationruns,leadingtomoreconsistentandreliablesystemperformanceProjects
+E-Shop—FlutterE-commerceApp(Flutter,MVVM,Provider,FirebaseAuth/Firestore,REST)GitHub1.Buildscope:Multi-screenapp(Home,Categories,Wishlist,Cart,Profile)—5screens—withsecureauthandper-usercart/wishlistisolationinFirestore2.Differentiators:Client-sidecachingwithshimmerloading,sessionmanagement,andAI-basedproductrecommendations3.Impact:APIcallscut38%,cold-starttimeshortened35%,view-to-detailclick-throughimproved10%
+ COVID-19TrackerApp(Flutter,RESTAPI)20251.Buildscope:Globalandper-countrystatswithsearch,filters,detailviews,andpull-to-refreshusingtype-safemodels2.Differentiators:State-preservingtabs,lazydataloading,andconsistentempty/errorscreens3.Impact:pageloadtimeimproved25%,timeouterrorsdropped30%,memoryusagelowered18%StepCounterSystem(Flutter,Next.js,Firestore,SQLite,Chart.js)20251.Buildscope:Mobile+websystemtocapturesteps,synctocloud,anddisplaydashboards2.Differentiators:Offline-firstdesignwithSQLite,real-timesync,anduser-scopedsecurityrules3.Impact:syncconflictsdropped45%,offlineusagegrew40%,dashboardloadtimeimproved27%LeadGenAutomationSystem(MarketingAgencies)(n8nWorkflow,Gemini,Hunter.io,Airtable,GmailAPI)20251.Buildscope:Chatbot-triggeredpipelineforleadgeneration,fromfieldextractiontomulti-stagefilters/scoringusingGemini;includeswebhooks,scheduling,anderrorhandling2.Differentiators:LeadenrichmentviaHunter.io,centralizedinAirtable,andGmailAPIforcoldemails;autocampaignsummariesandinsightsviaGemini3.Impact:prospectingtimedecreased70%,validcontactsincreased30%,bounceratedropped40%Skills
+Languages:Dart,JavaScriptMobile:Flutter,MVVM(Model–View–ViewModel),Provider,Riverpod,GetX,SharedPreferencesBackend/Cloud:Firebase(Auth,Firestore,Storage,CloudFunctions),REST/JSON,WebhooksAutomation:n8n,GPT-4/GeminiAPIs,Airtable,Hunter.io,ApifyGoogleMapScraperTooling:Git/GitHub,AndroidStudio,VSCode,Postman,basicCI/CDQuality/Performance:Unit/Widgettests,Analytics/Crashreporting,Caching,PerformanceprofilingWeb(supporting):Next.js/React(dashboards)Education
+BScinComputerScience,SukkurIBAUniversity—Sukkur,PakistanAug2025Certifications
+React&amp;Redux—KGCODING(2023)|IntroductiontoMongoDB—MongoDB,Inc.(May2024)|NationalFreelanceTrainingProgram(MoITT)(2023)</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45999.86572916667</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Aba_Salat_Resume (2)-1.pdf</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Salah</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>AbaSalatSindh,Pakistan|abasalat2023@gmail.com|+923138023211|linkedin.com/in/aba-salat|github.com/AbasalatTargetRoleandSummary
+Target:FlutterDeveloper|MobileApps|n8nWorkflowAutomationFlutterdeveloperspecializinginscalable,high-performanceappsusingMVVM,Provider/Riverpod,andFirebase(Auth/Firestore).Focusoncleanarchitecture,cachingandrenderoptimization,andautomationvian8n+GPT-4/Geminiforleadgenerationandemailoutreach.Outcome-driven:fasterloads,fewererrors,strongerconversionSelectedAchievements
+•CutapploadtimebysignificantlyenhancingAPIandimagecachingplusoptimizedrebuilds,resultinginfasterappperformanceandasmootheruserexperience•LoweredfailedAPIcallsbyintroducingpagination,retries,andtypedmodelswithclearerrorstates,leadingtomorereliabledatafetchingandfewerdisruptionsinappfunctionality•Enhancedadd-to-cartconversionsthroughAI-assistedrecommendationsandthoughtfulUXdesignimprovements,leadingtohigheruserengagementandtransactionratesExperience
+FlutterDeveloper,SpinelSol—Pakistan2025–Present•DeliveredFirebaseAuthandFirestorefeatureswithreal-timelisteners;optimizedFirestorereadsbyimplementingqueryscopingandbatchedwrites,resultinginmoreefficientdatahandling•RefactoredtoMVVMwithProvider/Riverpodtocontrolrebuilds;improvedscrollsmoothnessonproductlists(fewerdroppedframes)duringlistviews•ImprovedRESTAPIintegrationwithpaginationandretries,reducingappcrashesandaddingfriendlyempty/errorstatesforabetteruserexperience•StandardizedGitflow(featurebranches,PRreviews,basicCI);shorteneddeliverycycletimeandimprovedoverallteamproductivityAutomationEngineer(n8n)—Freelance/Project,Remote2024–2025•Designedandorchestratedalead-generationworkflowwithApify,Hunter.io,Airtable,andGmail,streamliningmanualprocessesandsignificantlyimprovingtheefficiencyofcontactgeneration•Implementedwebhooks,retries,andidempotentstepstostabilizeautomationruns,leadingtomoreconsistentandreliablesystemperformanceProjects
+E-Shop—FlutterE-commerceApp(Flutter,MVVM,Provider,FirebaseAuth/Firestore,REST)GitHub1.Buildscope:Multi-screenapp(Home,Categories,Wishlist,Cart,Profile)—5screens—withsecureauthandper-usercart/wishlistisolationinFirestore2.Differentiators:Client-sidecachingwithshimmerloading,sessionmanagement,andAI-basedproductrecommendations3.Impact:APIcallscut38%,cold-starttimeshortened35%,view-to-detailclick-throughimproved10%
+ COVID-19TrackerApp(Flutter,RESTAPI)20251.Buildscope:Globalandper-countrystatswithsearch,filters,detailviews,andpull-to-refreshusingtype-safemodels2.Differentiators:State-preservingtabs,lazydataloading,andconsistentempty/errorscreens3.Impact:pageloadtimeimproved25%,timeouterrorsdropped30%,memoryusagelowered18%StepCounterSystem(Flutter,Next.js,Firestore,SQLite,Chart.js)20251.Buildscope:Mobile+websystemtocapturesteps,synctocloud,anddisplaydashboards2.Differentiators:Offline-firstdesignwithSQLite,real-timesync,anduser-scopedsecurityrules3.Impact:syncconflictsdropped45%,offlineusagegrew40%,dashboardloadtimeimproved27%LeadGenAutomationSystem(MarketingAgencies)(n8nWorkflow,Gemini,Hunter.io,Airtable,GmailAPI)20251.Buildscope:Chatbot-triggeredpipelineforleadgeneration,fromfieldextractiontomulti-stagefilters/scoringusingGemini;includeswebhooks,scheduling,anderrorhandling2.Differentiators:LeadenrichmentviaHunter.io,centralizedinAirtable,andGmailAPIforcoldemails;autocampaignsummariesandinsightsviaGemini3.Impact:prospectingtimedecreased70%,validcontactsincreased30%,bounceratedropped40%Skills
+Languages:Dart,JavaScriptMobile:Flutter,MVVM(Model–View–ViewModel),Provider,Riverpod,GetX,SharedPreferencesBackend/Cloud:Firebase(Auth,Firestore,Storage,CloudFunctions),REST/JSON,WebhooksAutomation:n8n,GPT-4/GeminiAPIs,Airtable,Hunter.io,ApifyGoogleMapScraperTooling:Git/GitHub,AndroidStudio,VSCode,Postman,basicCI/CDQuality/Performance:Unit/Widgettests,Analytics/Crashreporting,Caching,PerformanceprofilingWeb(supporting):Next.js/React(dashboards)Education
+BScinComputerScience,SukkurIBAUniversity—Sukkur,PakistanAug2025Certifications
+React&amp;Redux—KGCODING(2023)|IntroductiontoMongoDB—MongoDB,Inc.(May2024)|NationalFreelanceTrainingProgram(MoITT)(2023)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>45999.87599537037</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Aba_Salat_Resume (2)-1.pdf</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45999.877118055556</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Salah</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>AbaSalatWebDeveloper&amp;n8nWorkflowAutomationSpecialistSukkur,Pakistan+923138023211
+abasalat2023@gmail.com
+linkedin.com/in/aba-salat/
+github.com/Abasalat/
+ProfessionalSummary
+Results-drivenWebDeveloperandAutomationEngineerwithhands-onexperienceinbuildingresponsivewebapplicationsandintelligentautomationsystemsusingn8n,Next.js,andReact.SkilledindesigninganddeployingAI-poweredworkflowsintegratingtoolslikeChatGPT,GPT-4,Gemini,andHunter.ioforleadgeneration,emailautomation,anddataenrichment.Adeptatdevelopingscalablefrontendsolutions,integratingRESTAPIs,andstreamliningbusinessprocessesthroughcreativeautomation.ProfessionalExperience
+Freelancer(Remote)2024–PresentWebDeveloper&amp;n8nAutomationSpecialist–Developedend-to-endautomationpipelinesusingn8nforleadgeneration,AI-basedcontentcreation,andemailoutreach.–IntegratedmultipleAIAPIs—GPT-4,Claude,Gemini,andWhisper—toautomateworkflowsforclientsinmarketingandtechindustries.–CreatedNext.jsdashboardsconnectedtoautomationworkflowsforauthenticatedtaskmanagement.–ConfigureddatastorageandanalyticspipelineswithAirtable,GoogleSheets,andFirebaseFirestore.KeyProjects
+AI-DrivenAutomation&amp;ValidationPlatform2024Next.js•GPT-4/Claude/DeepSeek•Whisper•GoogleMapScraper•Hunter.io•GmailAPI•Excel–Developedn8n-poweredpipelinesforcontentgeneration,webscraping,andcross-modelvalidationwithAIAPIs(ChatGPT,GPT-4,Claude).–IntegratedWhisperSTTfortranscription-drivenworkflows.–LeadenrichmentviaGoogleMapScraper&amp;Hunter.io;personalizedcampaignsviaGmailAPI;authenticatedNext.jsfrontend.LeadGenAutomationSystem(MarketingAgencies)2025n8nWorkflow•Gemini•Hunter.io•Airtable•Gmail–Createdchatbot-triggeredpipelineforleadgeneration,startingfromfieldextractiontomulti-stagefilters/scoringwithGemini.–PerformedleadenrichmentwithHunter.io,storedinAirtable,andusedGmailAPIforcoldemails.–AutomatedcampaignsummariesviaGeminiformarketinginsights.LinkedInContentCreationWorkflow2025n8n•GoogleSheets•TavilyAPI•OpenRouterChatModel–AutomatedLinkedInpostcreation:fromtopicextractionviaGoogleSheets,TavilyAPIarticlesearch,LLMpostgeneration,andstatuswrite-back.RAGPipeline&amp;Chatbotn8n•GoogleDriveTrigger•SupabaseVectorStore•OpenAIEmbeddings•PostgresChatMemory–Createdadocumentupload→chunk/embed→vectorsearch→context-awarechatbotwithmemoryforthesis/reportinteraction.DCodeDynamicsFrontend(React,Bootstrap,Redux,Git)–Builtaresponsiveagencywebapp;collaboratedwithUI/UXtorefinecomponentsanduserflows.PulsePodStoreFrontend(React,JavaScript,CSS)–Createdananimatedlandingpageandlightweightstore;ensuredfullyresponsivelayoutacrossdevices.ExploringHumanoidRobotasClassroomTeacher:AnExperimentalStudy2025FinalYearProject—BScComputerScience,SukkurIBAUniversity
+ –ProgrammedthePepperhumanoidRobotusingChoregraphetodeliverinteractiveprimary-levellessonsinScience&amp;SocialStudies.–Designedandranacontrolledclassroomexperimentcomparingrobot-ledvshuman-ledlessons(180studentobservations).–CollectedMCQassessments,feedback,andclassroomvideo;usedafacial-emotionrecognitionmodeltoderiveengagementmetrics.–Mergedassessmentscoreswithengagementdataandcleanedthedatasetforanalysis.–Performedinferentialstatistics(normalitychecks,t-tests,Mann–WhitneyU,Two-wayANOVA,χ2);foundastrongteachereffectonlearningoutcomes.TechnicalSkills
+Frontend:React.js,Next.js,JavaScript,TailwindCSS,HTML/CSS,BootstrapAutomation:n8n(HTTP,webhooks,filters,loops,parsers),AIintegration(Gemini,GPT-4,Claude),emailautomation(GmailAPI),scraping(Apify,Hunter.io)Backend&amp;Databases:Firebase(Firestore,Authentication),Airtable,SQLiteAPIs&amp;Integration:RESTfulAPIs,AIAPIs,datavalidationandenrichmentworkflowsTools:Git,GitHub,VSCode,Vercel,Chart.js,DeepSeekAITools:ChatGPT,WhisperAPI,LLaTeX,GoogleMapScraperAPIEducation
+SukkurIBAUniversityJune2025BachelorofScienceinComputerScienceSukkur,Pakistan–CGPA:3.0/4.0Certifications&amp;Learning
+ReactandRedux—KGCODING(2023)IntroductiontoMongoDB—MongoDBInc.(2024)NationalFreelanceTrainingProgram(NFTP)—MinistryofIT&amp;Telecom(2023)ContinuousLearning—Advancedn8nworkflows,AIAPIintegration,andwebautomationsystems</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45999.87711805556</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Abasalat-webn8n.pdf</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" style="3" min="1" max="1"/>
+    <col width="30" customWidth="1" style="3" min="2" max="2"/>
+    <col width="15" customWidth="1" style="3" min="3" max="3"/>
+    <col width="80" customWidth="1" style="3" min="4" max="4"/>
+    <col width="25" customWidth="1" style="3" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>services_summary</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>charges</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Fatima Test Provider</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>contact@Fatima.example</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>555-0100</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>AI Development Services – Fatima Fatima is a professional AI developer providing end-to-end AI
+solutions, including chatbots, automation apps, predictive analytics systems, and custom machine
+learning tools. Services Offered Custom Chatbot Development (RAG, LLM-Based) AI Automation
+Integrations (API-based, workflow automation) Predictive Analytics &amp; Data Modeling Fine-tuning and
+Prompt Engineering AI-powered dashboard integrations Consultation on AI architecture and
+deployment Timings &amp; Availability Fatima is available Monday to Saturday from 10 AM – 7 PM
+(GMT+5). Urgent consultations may be scheduled outside regular hours upon request. Charges Initial
+Frequently Asked Questions (FAQ) 1. How long does it take to develop an AI chatbot? Typical
+development time is 3–7 days depending on requirements such as integrations, UI, and model
+configuration. 2. Do you provide deployment services? Yes. Deployment is offered for web apps, cloud
+environments, and messaging platforms (WhatsApp, Telegram, etc.). 3. What do you need from the
+client? Project requirements Sample data (optional) Preferred platform or integration method Budget
+and timeline expectations 4. Is data kept confidential? Yes. Data confidentiality is ensured, and NDAs
+can be signed if required. 5. Do you offer ongoing support? Yes. Monthly support plans are available
+and can be customized. Contact Information Name: Fatima
+Email: fatima.ai.services@example.com</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>See provider pricing</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>